--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/99.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/99.xlsx
@@ -479,13 +479,13 @@
         <v>-11.28880927821194</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.720510813953</v>
+        <v>-20.66690774266414</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.280924640966953</v>
+        <v>-3.265866499816855</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.924955505360177</v>
+        <v>-8.916404632349943</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.89382011805384</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.14880248251535</v>
+        <v>-21.10886907442639</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.612047298049368</v>
+        <v>-3.582713256847879</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.856690302477444</v>
+        <v>-8.828431842786674</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.44521964215143</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.74879118323689</v>
+        <v>-21.69319828615319</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.296320123590868</v>
+        <v>-3.264101568337898</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.511575307741918</v>
+        <v>-8.491501045546364</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.969533251166308</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.88245663097834</v>
+        <v>-21.81974045088955</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.075053450808031</v>
+        <v>-3.045127839775645</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.26679251192922</v>
+        <v>-8.217354874490976</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.445575220697538</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.25686166585355</v>
+        <v>-22.18569239289187</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.09236053511691</v>
+        <v>-3.075332124199445</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.548216060643795</v>
+        <v>-7.513313440620888</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.874460434597911</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.71220420941054</v>
+        <v>-22.65273921888826</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.12313683334414</v>
+        <v>-3.101703427239585</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.475123054417765</v>
+        <v>-6.430080634152878</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.234297284667369</v>
       </c>
       <c r="E8" t="n">
-        <v>-23.20670280896466</v>
+        <v>-23.14428974730162</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.018360527179285</v>
+        <v>-3.008342952108977</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.906912898331177</v>
+        <v>-5.840740190387483</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.529248384871869</v>
       </c>
       <c r="E9" t="n">
-        <v>-23.4156002943742</v>
+        <v>-23.34891424070948</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.841471369727436</v>
+        <v>-2.831996474419355</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.11670760743858</v>
+        <v>-5.051933155458824</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.750896378100194</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.90609968631117</v>
+        <v>-23.83864605856835</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.145010250066717</v>
+        <v>-3.140336359501946</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.066793382768595</v>
+        <v>-3.992280029109945</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.90868040788053</v>
       </c>
       <c r="E11" t="n">
-        <v>-24.29231656177685</v>
+        <v>-24.21177017364443</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.211226959072213</v>
+        <v>-3.212718106166622</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.100270948227578</v>
+        <v>-3.021572604690848</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.022301726006086</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.75886959807968</v>
+        <v>-24.67183060882799</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.955888797433846</v>
+        <v>-2.944179625987585</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.212847755786378</v>
+        <v>-2.11533651382576</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.112725329509241</v>
       </c>
       <c r="E13" t="n">
-        <v>-25.40012640576484</v>
+        <v>-25.30176936561625</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.969729575874082</v>
+        <v>-2.960748470259559</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.958614509699934</v>
+        <v>-1.856761829641495</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.229947575764645</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.81821471699594</v>
+        <v>-25.72762141975201</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.699103489762873</v>
+        <v>-2.718855077505209</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.033448184246151</v>
+        <v>-0.9275767405431079</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.412788437100681</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.5281865161956</v>
+        <v>-26.44771346316618</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.590606649372296</v>
+        <v>-2.59443474174909</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1298374900685958</v>
+        <v>-0.03547965753713727</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.717161332591979</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.15311404094527</v>
+        <v>-27.06993003360814</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.430301003213021</v>
+        <v>-2.431738371231895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.32147162282319</v>
+        <v>0.4252212375459921</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.183232514316855</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.13852759802004</v>
+        <v>-28.03435997321012</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.449353462973389</v>
+        <v>-2.443291094458415</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7214412746055019</v>
+        <v>0.8086024890288616</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.8442055482096955</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.833353253946</v>
+        <v>-28.74340775011193</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.409361386802025</v>
+        <v>-2.388201765082017</v>
       </c>
       <c r="G18" t="n">
-        <v>1.016214165632405</v>
+        <v>1.102876701355339</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.7224733186080702</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.33679629156313</v>
+        <v>-29.25033664962517</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.424223967677446</v>
+        <v>-2.426472910836227</v>
       </c>
       <c r="G19" t="n">
-        <v>1.386033312066452</v>
+        <v>1.454288736935452</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.8131255137534741</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.13006210075442</v>
+        <v>-30.04025104460919</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.145575021297629</v>
+        <v>-2.132355146729491</v>
       </c>
       <c r="G20" t="n">
-        <v>1.326680768702105</v>
+        <v>1.373067665855394</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.111199035718618</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.93752314138379</v>
+        <v>-30.84855054991624</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.026043692408425</v>
+        <v>-2.0176688236454</v>
       </c>
       <c r="G21" t="n">
-        <v>1.029702935578223</v>
+        <v>1.055076881217512</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.583186522909843</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.33101485906744</v>
+        <v>-31.2205624159301</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.008922390360489</v>
+        <v>-2.001999556636938</v>
       </c>
       <c r="G22" t="n">
-        <v>1.087182989312542</v>
+        <v>1.114307199410186</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.199312702139397</v>
       </c>
       <c r="E23" t="n">
-        <v>-32.06004400703433</v>
+        <v>-31.96941893124576</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.833631938154121</v>
+        <v>-1.813117665340545</v>
       </c>
       <c r="G23" t="n">
-        <v>1.294672440744413</v>
+        <v>1.305628705133169</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.915457169285415</v>
       </c>
       <c r="E24" t="n">
-        <v>-32.44074852725756</v>
+        <v>-32.32252011869839</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.724592418001317</v>
+        <v>-1.703183456931096</v>
       </c>
       <c r="G24" t="n">
-        <v>1.138551784463218</v>
+        <v>1.136620626750786</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.683674343415066</v>
       </c>
       <c r="E25" t="n">
-        <v>-33.02305857914833</v>
+        <v>-32.92178035739676</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.551399349740854</v>
+        <v>-1.522735102480132</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8173049212519702</v>
+        <v>0.8139510625412666</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.459386715695064</v>
       </c>
       <c r="E26" t="n">
-        <v>-32.73624988030763</v>
+        <v>-32.63216047960758</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.590012725975749</v>
+        <v>-1.557329715070422</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7964630849783118</v>
+        <v>0.7859957212762468</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.190663902267175</v>
       </c>
       <c r="E27" t="n">
-        <v>-33.25879426775381</v>
+        <v>-33.15604689943872</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.371689235326795</v>
+        <v>-1.339871578636912</v>
       </c>
       <c r="G27" t="n">
-        <v>1.005497462580127</v>
+        <v>1.003013847091734</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.838880806624859</v>
       </c>
       <c r="E28" t="n">
-        <v>-32.98788950825118</v>
+        <v>-32.88445767897473</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.304176939501566</v>
+        <v>-1.272892184560177</v>
       </c>
       <c r="G28" t="n">
-        <v>0.913711247660666</v>
+        <v>0.9207367505284229</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.364611515642952</v>
       </c>
       <c r="E29" t="n">
-        <v>-33.32377405802197</v>
+        <v>-33.24555972616506</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.26827696207781</v>
+        <v>-1.223053648558847</v>
       </c>
       <c r="G29" t="n">
-        <v>1.547194534427437</v>
+        <v>1.560546412180981</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.743683025906171</v>
       </c>
       <c r="E30" t="n">
-        <v>-33.50479931528323</v>
+        <v>-33.40704362297927</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.28640539954033</v>
+        <v>-1.263979525041792</v>
       </c>
       <c r="G30" t="n">
-        <v>1.757089377237829</v>
+        <v>1.779515251736368</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.958933552213958</v>
       </c>
       <c r="E31" t="n">
-        <v>-33.18211997305998</v>
+        <v>-33.10483455250778</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.562238277964805</v>
+        <v>-1.545151198964937</v>
       </c>
       <c r="G31" t="n">
-        <v>2.348615207072736</v>
+        <v>2.383097372505087</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.000798625341205</v>
       </c>
       <c r="E32" t="n">
-        <v>-33.05779252843433</v>
+        <v>-32.97699191194483</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.678513528280643</v>
+        <v>-1.653330253909164</v>
       </c>
       <c r="G32" t="n">
-        <v>2.503846064104152</v>
+        <v>2.544375931030877</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.872817768983304</v>
       </c>
       <c r="E33" t="n">
-        <v>-32.2649911748954</v>
+        <v>-32.18292430562737</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.866114499777904</v>
+        <v>-1.86112771277365</v>
       </c>
       <c r="G33" t="n">
-        <v>3.315279422812893</v>
+        <v>3.381422796715385</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.585062208829559</v>
       </c>
       <c r="E34" t="n">
-        <v>-32.07666174137497</v>
+        <v>-31.98845427948209</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.077060479064683</v>
+        <v>-2.072709262953128</v>
       </c>
       <c r="G34" t="n">
-        <v>3.859391664052458</v>
+        <v>3.92040158074469</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.160383054884331</v>
       </c>
       <c r="E35" t="n">
-        <v>-31.61732487920771</v>
+        <v>-31.53609403011392</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.245545433712306</v>
+        <v>-2.229309041907281</v>
       </c>
       <c r="G35" t="n">
-        <v>4.341369517020402</v>
+        <v>4.409859614219013</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.62872182803808</v>
       </c>
       <c r="E36" t="n">
-        <v>-31.94901221658326</v>
+        <v>-31.87414929893362</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.26892955355676</v>
+        <v>-2.257303495227236</v>
       </c>
       <c r="G36" t="n">
-        <v>4.642547007042963</v>
+        <v>4.710088636909394</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.020619500062381</v>
       </c>
       <c r="E37" t="n">
-        <v>-31.13354053820244</v>
+        <v>-31.06195325515364</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.266514384164504</v>
+        <v>-2.267580187661491</v>
       </c>
       <c r="G37" t="n">
-        <v>4.841470918443998</v>
+        <v>4.925077824875111</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.375446210725893</v>
       </c>
       <c r="E38" t="n">
-        <v>-30.55340609436745</v>
+        <v>-30.48469843636326</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.503939224642495</v>
+        <v>-2.507777095033023</v>
       </c>
       <c r="G38" t="n">
-        <v>5.104220814492608</v>
+        <v>5.166584986086976</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.723099882775502</v>
       </c>
       <c r="E39" t="n">
-        <v>-29.80853167514489</v>
+        <v>-29.74624328315696</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.498698209281162</v>
+        <v>-2.505933939444196</v>
       </c>
       <c r="G39" t="n">
-        <v>5.402425788340086</v>
+        <v>5.481647255611576</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.09603273881469</v>
       </c>
       <c r="E40" t="n">
-        <v>-29.52130985522393</v>
+        <v>-29.46189864377718</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.660001212841287</v>
+        <v>-2.665437788477296</v>
       </c>
       <c r="G40" t="n">
-        <v>5.244227304140452</v>
+        <v>5.324881250423948</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.518446398168522</v>
       </c>
       <c r="E41" t="n">
-        <v>-29.03021155994576</v>
+        <v>-28.96746604581578</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.61910955940641</v>
+        <v>-2.634519709050926</v>
       </c>
       <c r="G41" t="n">
-        <v>5.65559811993641</v>
+        <v>5.728317208074903</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.006703094398644</v>
       </c>
       <c r="E42" t="n">
-        <v>-28.43123732814911</v>
+        <v>-28.36469550018696</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.620449147287945</v>
+        <v>-2.635433953335039</v>
       </c>
       <c r="G42" t="n">
-        <v>5.501232617120437</v>
+        <v>5.570456065349085</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.57889867356726</v>
       </c>
       <c r="E43" t="n">
-        <v>-27.79613089110252</v>
+        <v>-27.7346394072339</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.664205758746833</v>
+        <v>-2.686132954544947</v>
       </c>
       <c r="G43" t="n">
-        <v>5.880482657800763</v>
+        <v>5.961209939187263</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.237614499097468</v>
       </c>
       <c r="E44" t="n">
-        <v>-27.13028482338021</v>
+        <v>-27.07899669684284</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.72045378275069</v>
+        <v>-2.740029366245817</v>
       </c>
       <c r="G44" t="n">
-        <v>5.553975223200715</v>
+        <v>5.615684267874916</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.9897220130186767</v>
       </c>
       <c r="E45" t="n">
-        <v>-26.26979761427228</v>
+        <v>-26.19877501151661</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.572194649511494</v>
+        <v>-2.589203504401491</v>
       </c>
       <c r="G45" t="n">
-        <v>5.44005647419473</v>
+        <v>5.494275560348817</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.828139607844696</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.70924853194614</v>
+        <v>-25.64351094561361</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.475289644402373</v>
+        <v>-2.499852014901754</v>
       </c>
       <c r="G46" t="n">
-        <v>5.385959613212316</v>
+        <v>5.442168525161238</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.7445136884183606</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.88605711172247</v>
+        <v>-24.82117021258478</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.501020487542946</v>
+        <v>-2.529660289769334</v>
       </c>
       <c r="G47" t="n">
-        <v>5.392637996592522</v>
+        <v>5.452523441705363</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.727816925389559</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.54235503997149</v>
+        <v>-24.49632015131261</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.447031184711605</v>
+        <v>-2.472590912611836</v>
       </c>
       <c r="G48" t="n">
-        <v>5.239079179909591</v>
+        <v>5.299297077489382</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.76030006982152</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.54673812556546</v>
+        <v>-23.49535955240105</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.416572671930724</v>
+        <v>-2.446346723750236</v>
       </c>
       <c r="G49" t="n">
-        <v>4.93187843342699</v>
+        <v>4.965734805980376</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.8305036427066577</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.13725935542699</v>
+        <v>-23.09160092029688</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.280668059044223</v>
+        <v>-2.306296233040591</v>
       </c>
       <c r="G50" t="n">
-        <v>4.841881595020819</v>
+        <v>4.892820157567206</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.9203737864596127</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.72556586517782</v>
+        <v>-22.66593953742893</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.059064044787569</v>
+        <v>-2.095614260124625</v>
       </c>
       <c r="G51" t="n">
-        <v>4.697274549911209</v>
+        <v>4.724555208228595</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.017804045199474</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.86871852168231</v>
+        <v>-21.81569724221061</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.922861202482185</v>
+        <v>-1.96437375978916</v>
       </c>
       <c r="G52" t="n">
-        <v>4.553606194120047</v>
+        <v>4.582881567239133</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.110125611748943</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.88644859602296</v>
+        <v>-20.82855297670495</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.020357777422203</v>
+        <v>-2.064999299124004</v>
       </c>
       <c r="G53" t="n">
-        <v>4.394708581938444</v>
+        <v>4.433629965605953</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.188346579836395</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.24937188920901</v>
+        <v>-20.17858395878294</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.699492256746575</v>
+        <v>-1.739205659526525</v>
       </c>
       <c r="G54" t="n">
-        <v>4.490792233893923</v>
+        <v>4.50826065542941</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.247843623372071</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.5941716339394</v>
+        <v>-19.53152878895362</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.749369904802841</v>
+        <v>-1.788780189157043</v>
       </c>
       <c r="G55" t="n">
-        <v>3.965844899572665</v>
+        <v>3.978502538351107</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.285185461824759</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.14826487363555</v>
+        <v>-19.0755995645726</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.910536016170693</v>
+        <v>-1.951197886282824</v>
       </c>
       <c r="G56" t="n">
-        <v>4.059053815490398</v>
+        <v>4.059547605183957</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.302895899872403</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.6956943969721</v>
+        <v>-18.62204150852203</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.864941138129844</v>
+        <v>-1.907583056023076</v>
       </c>
       <c r="G57" t="n">
-        <v>3.552435367913203</v>
+        <v>3.536370091348521</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.303590884766579</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.76851868969602</v>
+        <v>-17.7110826370235</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.215101587952026</v>
+        <v>-2.251847363563759</v>
       </c>
       <c r="G58" t="n">
-        <v>3.199889082739967</v>
+        <v>3.180078826915227</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.295299714558522</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.31247701815706</v>
+        <v>-17.2477465672391</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.236324766761304</v>
+        <v>-2.271906958738711</v>
       </c>
       <c r="G59" t="n">
-        <v>3.179340586878323</v>
+        <v>3.157672508444156</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.285635621794501</v>
       </c>
       <c r="E60" t="n">
-        <v>-16.67383582914569</v>
+        <v>-16.61824782106887</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.349896396279739</v>
+        <v>-2.387370633914641</v>
       </c>
       <c r="G60" t="n">
-        <v>2.727395903093838</v>
+        <v>2.685707341539655</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.282162078621055</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.91421127620565</v>
+        <v>-15.86036375457345</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.20243417115985</v>
+        <v>-2.246386342893415</v>
       </c>
       <c r="G61" t="n">
-        <v>2.274087186393484</v>
+        <v>2.235948043824681</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.293270155519673</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.90325012281003</v>
+        <v>-15.8679954942927</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.548194514801809</v>
+        <v>-2.597725043370524</v>
       </c>
       <c r="G62" t="n">
-        <v>1.706238816815047</v>
+        <v>1.651213044527919</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.322248586638074</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.26533739582183</v>
+        <v>-15.21368503827287</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.742933436324765</v>
+        <v>-2.788044302685789</v>
       </c>
       <c r="G63" t="n">
-        <v>1.336644564696877</v>
+        <v>1.29797252037958</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.374901458410546</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.17528188933326</v>
+        <v>-15.12514512391304</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.965236578563387</v>
+        <v>-3.000642766293586</v>
       </c>
       <c r="G64" t="n">
-        <v>0.91365746858513</v>
+        <v>0.8682581508189579</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.451370043467778</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.79963015770698</v>
+        <v>-14.74586574919152</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.954925663081064</v>
+        <v>-2.97886224070148</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8614624312739461</v>
+        <v>0.8069988947765135</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.552223257264365</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.69564587065457</v>
+        <v>-14.63560886632885</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.865168386011372</v>
+        <v>-2.889647643394015</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3635708609541946</v>
+        <v>0.320723604772552</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.676292229719712</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.3353309535698</v>
+        <v>-14.2847639555453</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.134049096671094</v>
+        <v>-3.153116223452062</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3859771794252658</v>
+        <v>0.3400596269312006</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.818100803538767</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.3832236648381</v>
+        <v>-14.32583161322739</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.399258163173762</v>
+        <v>-3.421116912875739</v>
       </c>
       <c r="G68" t="n">
-        <v>0.4214713692790684</v>
+        <v>0.3902403934132156</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.975565491169163</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.25859799079357</v>
+        <v>-14.19206349634173</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.349492962275435</v>
+        <v>-3.378572775119845</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6294448323907633</v>
+        <v>0.5818307945138786</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.139822043897727</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.389031804996</v>
+        <v>-14.33218243314751</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.674123018238587</v>
+        <v>-3.683842363890014</v>
       </c>
       <c r="G70" t="n">
-        <v>0.660675808256616</v>
+        <v>0.6250202811762053</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.307259810697387</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.1955542472447</v>
+        <v>-14.12155912831395</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.625110724397765</v>
+        <v>-3.643512946244833</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7611644553991859</v>
+        <v>0.7247266872200687</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.471744244940795</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.16004050136343</v>
+        <v>-14.09591628729698</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.824929324055446</v>
+        <v>-3.837714077012429</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6351307473769854</v>
+        <v>0.6056255909351537</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.627942437333227</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.41561333533141</v>
+        <v>-14.36591169152235</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.702933935705317</v>
+        <v>-3.715151563865738</v>
       </c>
       <c r="G73" t="n">
-        <v>1.055091548238112</v>
+        <v>1.029404706159341</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.775058778960452</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.0284503460992</v>
+        <v>-14.99560599796727</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.777193061006888</v>
+        <v>-3.785973717339868</v>
       </c>
       <c r="G74" t="n">
-        <v>1.371688965918924</v>
+        <v>1.343831404791243</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.908264535999201</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.12094546701437</v>
+        <v>-15.09252567009699</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.890065562543354</v>
+        <v>-3.895487471158762</v>
       </c>
       <c r="G75" t="n">
-        <v>1.622495018191661</v>
+        <v>1.593688989731798</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.030213908056125</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.54547748929606</v>
+        <v>-15.5339003210352</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.749227941728135</v>
+        <v>-3.750968428172757</v>
       </c>
       <c r="G76" t="n">
-        <v>1.906873880619502</v>
+        <v>1.890422372512334</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.1397367152891</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.14010294948459</v>
+        <v>-16.14326613692748</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.900787154602498</v>
+        <v>-3.903578777523506</v>
       </c>
       <c r="G77" t="n">
-        <v>2.261361101518905</v>
+        <v>2.220635674317503</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.239123769331715</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.96696112485845</v>
+        <v>-16.96821759962324</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.247887086125992</v>
+        <v>-4.243892767515723</v>
       </c>
       <c r="G78" t="n">
-        <v>2.595788727243355</v>
+        <v>2.556187771621344</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.331978037273168</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.64584372939139</v>
+        <v>-17.63998181015796</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.9756476277487</v>
+        <v>-3.973711581029402</v>
       </c>
       <c r="G79" t="n">
-        <v>2.754109436614661</v>
+        <v>2.704725578251954</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.41746437118515</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.37352351146301</v>
+        <v>-18.36844872233515</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.076053161774532</v>
+        <v>-4.067810296196914</v>
       </c>
       <c r="G80" t="n">
-        <v>2.911193227248639</v>
+        <v>2.871738941832635</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.500567226042196</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.54526689824965</v>
+        <v>-19.54865986901529</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.88744016585582</v>
+        <v>-3.891859828063512</v>
       </c>
       <c r="G81" t="n">
-        <v>3.286884070929851</v>
+        <v>3.240780736174843</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.577724039697649</v>
       </c>
       <c r="E82" t="n">
-        <v>-20.62579608392025</v>
+        <v>-20.62851437173826</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.85796434345519</v>
+        <v>-3.862491563813954</v>
       </c>
       <c r="G82" t="n">
-        <v>3.653398248721864</v>
+        <v>3.635959161227579</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.651575808644317</v>
       </c>
       <c r="E83" t="n">
-        <v>-21.70052201843983</v>
+        <v>-21.71039292330413</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.669845137230037</v>
+        <v>-3.654415431558053</v>
       </c>
       <c r="G83" t="n">
-        <v>3.995252275877158</v>
+        <v>3.973916649909941</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.721756143174702</v>
       </c>
       <c r="E84" t="n">
-        <v>-23.13632066610855</v>
+        <v>-23.15323662986808</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.829207205063997</v>
+        <v>-3.8240199687782</v>
       </c>
       <c r="G84" t="n">
-        <v>3.934706814837283</v>
+        <v>3.916294814976482</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.786107144951229</v>
       </c>
       <c r="E85" t="n">
-        <v>-24.06051896820268</v>
+        <v>-24.08333107424371</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.730287929125706</v>
+        <v>-3.717072943564435</v>
       </c>
       <c r="G85" t="n">
-        <v>4.210872145728707</v>
+        <v>4.204491991767384</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.849226049743151</v>
       </c>
       <c r="E86" t="n">
-        <v>-25.83688094521382</v>
+        <v>-25.87580232888133</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.74643142980026</v>
+        <v>-3.719532114018493</v>
       </c>
       <c r="G86" t="n">
-        <v>4.604124302075879</v>
+        <v>4.573685345322466</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.907851362832524</v>
       </c>
       <c r="E87" t="n">
-        <v>-26.97347726163421</v>
+        <v>-27.02343557830378</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.59725805227695</v>
+        <v>-3.582908817122555</v>
       </c>
       <c r="G87" t="n">
-        <v>4.983467233886676</v>
+        <v>4.969621566439574</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.968916084401916</v>
       </c>
       <c r="E88" t="n">
-        <v>-28.57949646138831</v>
+        <v>-28.64103439082216</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.415572779088657</v>
+        <v>-3.4046018476793</v>
       </c>
       <c r="G88" t="n">
-        <v>5.128577846703579</v>
+        <v>5.120163865885618</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.0335061808785</v>
       </c>
       <c r="E89" t="n">
-        <v>-30.15239263961905</v>
+        <v>-30.2341906135094</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.521199772448355</v>
+        <v>-3.509779052407242</v>
       </c>
       <c r="G89" t="n">
-        <v>5.362027924598768</v>
+        <v>5.346647108995453</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.106286885778313</v>
       </c>
       <c r="E90" t="n">
-        <v>-31.89979702895745</v>
+        <v>-31.9558690487141</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.60643471816615</v>
+        <v>-3.596754484569658</v>
       </c>
       <c r="G90" t="n">
-        <v>5.361744362200486</v>
+        <v>5.360649224662298</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.196398389408045</v>
       </c>
       <c r="E91" t="n">
-        <v>-33.72748868906434</v>
+        <v>-33.77548651398028</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.874758082043043</v>
+        <v>-3.875334984853339</v>
       </c>
       <c r="G91" t="n">
-        <v>5.072916503523753</v>
+        <v>5.081218037183774</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.305327833239916</v>
       </c>
       <c r="E92" t="n">
-        <v>-35.68037070350888</v>
+        <v>-35.74935703490448</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.709695432202261</v>
+        <v>-3.712418609027132</v>
       </c>
       <c r="G92" t="n">
-        <v>4.690532609441734</v>
+        <v>4.698095903064851</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.447033477981774</v>
       </c>
       <c r="E93" t="n">
-        <v>-37.86818905393615</v>
+        <v>-37.93076345282579</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.822225703258042</v>
+        <v>-3.831133473769561</v>
       </c>
       <c r="G93" t="n">
-        <v>4.583830034571315</v>
+        <v>4.581918432886351</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.621490926087845</v>
       </c>
       <c r="E94" t="n">
-        <v>-40.0265975835555</v>
+        <v>-40.09018400686659</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.103402266188055</v>
+        <v>-4.119443097718403</v>
       </c>
       <c r="G94" t="n">
-        <v>4.404628376871414</v>
+        <v>4.403362124092883</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.837556119255734</v>
       </c>
       <c r="E95" t="n">
-        <v>-42.41145024422974</v>
+        <v>-42.47552067922066</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.008257303551023</v>
+        <v>-4.027823109032417</v>
       </c>
       <c r="G95" t="n">
-        <v>4.187116461362368</v>
+        <v>4.179235382292902</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.103304553732865</v>
       </c>
       <c r="E96" t="n">
-        <v>-44.68870564177692</v>
+        <v>-44.7421718208735</v>
       </c>
       <c r="F96" t="n">
-        <v>-4.158418260461448</v>
+        <v>-4.171051454205557</v>
       </c>
       <c r="G96" t="n">
-        <v>3.568994434171444</v>
+        <v>3.559636875028169</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.410080699233077</v>
       </c>
       <c r="E97" t="n">
-        <v>-46.80912658804034</v>
+        <v>-46.86415724933433</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.146533084767978</v>
+        <v>-4.169643420227885</v>
       </c>
       <c r="G97" t="n">
-        <v>3.133691929761938</v>
+        <v>3.132621237258084</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.777386362357491</v>
       </c>
       <c r="E98" t="n">
-        <v>-48.94672750443409</v>
+        <v>-48.98662913397842</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.248879554519975</v>
+        <v>-4.280262089598702</v>
       </c>
       <c r="G98" t="n">
-        <v>2.754588559287619</v>
+        <v>2.748951534370066</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.176432860812627</v>
       </c>
       <c r="E99" t="n">
-        <v>-51.1565622750348</v>
+        <v>-51.21018368009941</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.258276225718186</v>
+        <v>-4.298014073532471</v>
       </c>
       <c r="G99" t="n">
-        <v>2.393496290111015</v>
+        <v>2.375768751211581</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.642403646364507</v>
       </c>
       <c r="E100" t="n">
-        <v>-53.89457356899236</v>
+        <v>-53.94413709835743</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.453626273099506</v>
+        <v>-4.481918955838344</v>
       </c>
       <c r="G100" t="n">
-        <v>1.91949240734301</v>
+        <v>1.903578689991202</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.116379246128261</v>
       </c>
       <c r="E101" t="n">
-        <v>-56.24561019141987</v>
+        <v>-56.28929469002748</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.469256428053034</v>
+        <v>-4.490504051896647</v>
       </c>
       <c r="G101" t="n">
-        <v>1.501936997860405</v>
+        <v>1.478992888633973</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.678580675947889</v>
       </c>
       <c r="E102" t="n">
-        <v>-58.39070045520788</v>
+        <v>-58.44211936267894</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.310510375084306</v>
+        <v>-4.335727872503853</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8844260965278455</v>
+        <v>0.869279953254143</v>
       </c>
     </row>
   </sheetData>
